--- a/tables.xlsx
+++ b/tables.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
   <si>
     <t>quizes</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>sql:quizes</t>
+  </si>
+  <si>
+    <t>ijk</t>
   </si>
 </sst>
 </file>
@@ -484,7 +487,7 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,6 +502,9 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="I1" t="s">
+        <v>42</v>
+      </c>
       <c r="K1" t="s">
         <v>27</v>
       </c>

--- a/tables.xlsx
+++ b/tables.xlsx
@@ -142,7 +142,7 @@
     <t>sql:quizes</t>
   </si>
   <si>
-    <t>ijk</t>
+    <t>ijk veqtori</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/tables.xlsx
+++ b/tables.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>quizes</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>ijk veqtori</t>
+  </si>
+  <si>
+    <t>axali versia kitxvebis</t>
   </si>
 </sst>
 </file>
@@ -484,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -689,6 +692,25 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
